--- a/数据整理/stocks/A股/上证主板/605168-三人行.xlsx
+++ b/数据整理/stocks/A股/上证主板/605168-三人行.xlsx
@@ -1,138 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>004848</t>
-  </si>
-  <si>
-    <t>004142</t>
-  </si>
-  <si>
-    <t>004143</t>
-  </si>
-  <si>
-    <t>510190</t>
-  </si>
-  <si>
-    <t>中欧睿泓定期开放灵活配置混合</t>
-  </si>
-  <si>
-    <t>招商盛合灵活配置混合A</t>
-  </si>
-  <si>
-    <t>招商盛合灵活配置混合C</t>
-  </si>
-  <si>
-    <t>华安上证龙头ETF</t>
-  </si>
-  <si>
-    <t>5.52</t>
-  </si>
-  <si>
-    <t>4.65</t>
-  </si>
-  <si>
-    <t>4.29</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>58.68</t>
-  </si>
-  <si>
-    <t>29.31</t>
-  </si>
-  <si>
-    <t>97.95</t>
-  </si>
-  <si>
-    <t>2.41</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>0.1330</t>
-  </si>
-  <si>
-    <t>0.0460</t>
-  </si>
-  <si>
-    <t>0.0425</t>
-  </si>
-  <si>
-    <t>0.0092</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,141 +446,261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>58.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605168-三人行.xlsx
+++ b/数据整理/stocks/A股/上证主板/605168-三人行.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +671,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -690,13 +711,293 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3440</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605168-三人行.xlsx
+++ b/数据整理/stocks/A股/上证主板/605168-三人行.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +996,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.84</v>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1298</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -991,13 +1034,1789 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9467</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6192</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6175</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6160</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6082</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5998</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5676</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4613</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4415</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2742</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001443</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001444</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达瑞选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519629</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519630</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>72.34</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605168-三人行.xlsx
+++ b/数据整理/stocks/A股/上证主板/605168-三人行.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2747,7 +2748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2758,17 +2759,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2778,14 +2799,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>46</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.64</v>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7210</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2794,14 +2837,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.84</v>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6898</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2810,13 +2875,1047 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5569</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5415</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5068</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4538</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3319</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3103</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2644</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519629</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519630</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605168-三人行.xlsx
+++ b/数据整理/stocks/A股/上证主板/605168-三人行.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,205 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004848</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>58.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1330</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004142</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>29.31</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0460</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004143</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>29.31</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0425</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+      <c r="D4" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>510190</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安上证龙头ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>97.95</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -662,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,32 +605,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005825</t>
+          <t>002692</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信智能驱动股票</t>
+          <t>富国创新科技混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.10</t>
+          <t>39.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>90.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3440</t>
+          <t>1.7210</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -751,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010128</t>
+          <t>000698</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈发展新动能股票A</t>
+          <t>宝盈科技30灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>13.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>88.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2139</t>
+          <t>0.6898</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -789,32 +681,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001628</t>
+          <t>009491</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商体育文化休闲股票</t>
+          <t>宝盈创新驱动股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>88.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1976</t>
+          <t>0.5569</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -827,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010129</t>
+          <t>213008</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈发展新动能股票C</t>
+          <t>宝盈资源优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>11.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>87.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0543</t>
+          <t>0.5415</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -865,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004930</t>
+          <t>213006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华润元大价值优选混合A</t>
+          <t>宝盈核心优势灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>10.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.06</t>
+          <t>74.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0168</t>
+          <t>0.5068</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -903,36 +795,834 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004931</t>
+          <t>002482</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华润元大价值优选混合C</t>
+          <t>宝盈互联网沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>10.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.06</t>
+          <t>90.80</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0092</t>
+          <t>0.4538</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3319</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3103</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2644</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519629</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519630</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2748,7 +3438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2799,32 +3489,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002692</t>
+          <t>005825</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国创新科技混合A</t>
+          <t>申万菱信智能驱动股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.93</t>
+          <t>9.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.59</t>
+          <t>90.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7210</t>
+          <t>0.3440</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2837,36 +3527,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000698</t>
+          <t>010128</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈科技30灵活配置混合</t>
+          <t>宝盈发展新动能股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.88</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.88</t>
+          <t>91.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6898</t>
+          <t>0.2139</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2875,32 +3565,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009491</t>
+          <t>001628</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈创新驱动股票A</t>
+          <t>招商体育文化休闲股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.78</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5569</t>
+          <t>0.1976</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2913,36 +3603,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>213008</t>
+          <t>010129</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈资源优选混合</t>
+          <t>宝盈发展新动能股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.67</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.53</t>
+          <t>91.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5415</t>
+          <t>0.0543</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2951,36 +3641,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>213006</t>
+          <t>004930</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>宝盈核心优势灵活配置混合A</t>
+          <t>华润元大价值优选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.67</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>74.27</t>
+          <t>87.06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5068</t>
+          <t>0.0168</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2989,834 +3679,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002482</t>
+          <t>004931</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>宝盈互联网沪港深灵活配置混合</t>
+          <t>华润元大价值优选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.29</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.80</t>
+          <t>87.06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4538</t>
+          <t>0.0092</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008227</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>宝盈研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.93</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3319</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005962</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>宝盈人工智能主题股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.04</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3103</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005585</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银河文体娱乐主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.64</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2644</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010383</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>宝盈基础产业混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.81</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2083</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001628</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商体育文化休闲股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.72</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1334</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005963</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>宝盈人工智能主题股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.04</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1266</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009492</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>宝盈创新驱动股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88.78</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1171</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011170</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>宝盈智慧生活混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.59</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0876</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008228</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>宝盈研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>88.93</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0683</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>519629</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>银河睿利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>41.75</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0484</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>519630</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>银河睿利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>41.75</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0411</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002281</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>建信裕利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.05</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0397</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>519625</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>银河君盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>30.10</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0383</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002378</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>建信弘利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0382</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>011171</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>宝盈智慧生活混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>90.59</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0382</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>011120</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>富国创新科技混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.59</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0358</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>519626</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>银河君盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>30.10</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0342</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>003397</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>银华体育文化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>87.23</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>010384</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>宝盈基础产业混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>89.81</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>000241</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>宝盈核心优势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>74.27</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001613</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>长城久祥灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>86.81</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3830,96 +3722,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.49</v>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>58.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>46</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.64</v>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.84</v>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.23</v>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605168-三人行.xlsx
+++ b/数据整理/stocks/A股/上证主板/605168-三人行.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>6.49</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>10.64</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>0.84</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -549,6 +566,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3428</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2479</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2344</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015667</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015395</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1630,7 +2121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3432,7 +3923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3716,7 +4207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/605168-三人行.xlsx
+++ b/数据整理/stocks/A股/上证主板/605168-三人行.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>1.31</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>6.49</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>10.64</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>0.84</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -566,6 +583,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015667</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>62.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1039,7 +1454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2121,7 +2536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3923,7 +4338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4207,7 +4622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
